--- a/demo_data/1_TEMPLATE_definitions.xlsx
+++ b/demo_data/1_TEMPLATE_definitions.xlsx
@@ -16,8 +16,81 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Deniz İlhan Topcu</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="162"/>
+          </rPr>
+          <t>Deniz İlhan Topcu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="162"/>
+          </rPr>
+          <t xml:space="preserve">
+Example definition</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Deniz İlhan Topcu</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="162"/>
+          </rPr>
+          <t>Deniz İlhan Topcu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="162"/>
+          </rPr>
+          <t xml:space="preserve">
+Example definition 
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="16">
   <si>
     <t>device</t>
   </si>
@@ -46,36 +119,6 @@
     <t>common_name</t>
   </si>
   <si>
-    <t>BUN</t>
-  </si>
-  <si>
-    <t>Albumin</t>
-  </si>
-  <si>
-    <t>AST</t>
-  </si>
-  <si>
-    <t>ALT</t>
-  </si>
-  <si>
-    <t>Vitamin B12</t>
-  </si>
-  <si>
-    <t>TSH</t>
-  </si>
-  <si>
-    <t>LH</t>
-  </si>
-  <si>
-    <t>FSH</t>
-  </si>
-  <si>
-    <t>APTT</t>
-  </si>
-  <si>
-    <t>D-Dimer</t>
-  </si>
-  <si>
     <t>shift_name</t>
   </si>
   <si>
@@ -85,137 +128,53 @@
     <t>end_time</t>
   </si>
   <si>
-    <t>day_shift</t>
-  </si>
-  <si>
-    <t>night_shift</t>
-  </si>
-  <si>
     <t>target_TAT_inlab_stat</t>
   </si>
   <si>
-    <t>08:00:00</t>
-  </si>
-  <si>
-    <t>16:00:00</t>
-  </si>
-  <si>
-    <t>15:59:59</t>
-  </si>
-  <si>
-    <t>07:59:59</t>
-  </si>
-  <si>
     <t>Chem_Device</t>
   </si>
   <si>
     <t>Module_1</t>
   </si>
   <si>
-    <t>Imm_Device</t>
-  </si>
-  <si>
-    <t>Module_2</t>
-  </si>
-  <si>
-    <t>Coagulation_1</t>
-  </si>
-  <si>
     <t>Chemistry - 1</t>
-  </si>
-  <si>
-    <t>Hormone 1</t>
-  </si>
-  <si>
-    <t>Hormone 2</t>
-  </si>
-  <si>
-    <t>Cardiac Marker</t>
-  </si>
-  <si>
-    <t>Chemistry - 2</t>
-  </si>
-  <si>
-    <t>Coagulation</t>
-  </si>
-  <si>
-    <t>Creatinine</t>
-  </si>
-  <si>
-    <t>Sodium</t>
-  </si>
-  <si>
-    <t>Potassium</t>
-  </si>
-  <si>
-    <t>Calcium</t>
-  </si>
-  <si>
-    <t>free T4</t>
-  </si>
-  <si>
-    <t>CK-MB, Mass</t>
-  </si>
-  <si>
-    <t>HsTNT-I</t>
-  </si>
-  <si>
-    <t>Folic Acid</t>
-  </si>
-  <si>
-    <t>CA-125</t>
-  </si>
-  <si>
-    <t>Cholesterol Total</t>
-  </si>
-  <si>
-    <t>HDL-C</t>
-  </si>
-  <si>
-    <t>LDL-C</t>
-  </si>
-  <si>
-    <t>Triglyceride</t>
-  </si>
-  <si>
-    <t>free T3</t>
-  </si>
-  <si>
-    <t>Progesterone</t>
-  </si>
-  <si>
-    <t>Uric Acid</t>
-  </si>
-  <si>
-    <t>Fibrinogen</t>
-  </si>
-  <si>
-    <t>Chloride</t>
-  </si>
-  <si>
-    <t>INR</t>
-  </si>
-  <si>
-    <t>Estradiol</t>
-  </si>
-  <si>
-    <t>Glucose</t>
-  </si>
-  <si>
-    <t>PTH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="2">
@@ -238,8 +197,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,12 +492,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -548,101 +506,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
         <v>1350</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D15" sqref="D14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,84 +556,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>24</v>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
         <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <f>60*4</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -738,7 +585,8 @@
     <sortCondition ref="A11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -747,7 +595,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,26 +606,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -786,12 +628,6 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -800,12 +636,6 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -814,12 +644,6 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -828,12 +652,6 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -842,12 +660,6 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -856,12 +668,6 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -870,12 +676,6 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>57</v>
-      </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -884,12 +684,6 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -898,12 +692,6 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -912,12 +700,6 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -926,12 +708,6 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -940,12 +716,6 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -954,12 +724,6 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -968,12 +732,6 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -981,13 +739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -995,13 +747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -1009,13 +755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -1023,13 +763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -1037,13 +771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>56</v>
-      </c>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -1051,13 +779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -1065,13 +787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" t="s">
-        <v>59</v>
-      </c>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -1079,13 +795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -1093,13 +803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" t="s">
-        <v>44</v>
-      </c>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -1107,13 +811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -1121,13 +819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -1135,13 +827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" t="s">
-        <v>54</v>
-      </c>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -1149,13 +835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -1163,13 +843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" t="s">
-        <v>48</v>
-      </c>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -1177,13 +851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" t="s">
-        <v>47</v>
-      </c>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -1191,13 +859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" t="s">
-        <v>61</v>
-      </c>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -1205,13 +867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -1231,10 +887,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,36 +901,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
